--- a/examples/HH3000NdFeMn_ads/model_config.HH3000NdFeMn_ads_parameter_template.xlsx
+++ b/examples/HH3000NdFeMn_ads/model_config.HH3000NdFeMn_ads_parameter_template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="253">
   <si>
     <t>class</t>
   </si>
@@ -258,6 +258,12 @@
     <t>Flux of Basalt at the  TOP of sediment column</t>
   </si>
   <si>
+    <t>FChlorite0</t>
+  </si>
+  <si>
+    <t>Flux of Chlorite at the  TOP of sediment column</t>
+  </si>
+  <si>
     <t>FNdnrPO40</t>
   </si>
   <si>
@@ -423,7 +429,7 @@
     <t>dstopw</t>
   </si>
   <si>
-    <t>Mn,Fe,Ndnr,Ndr,RO2Mn_ads,RO2Fe_ads,RMnOx_Ndnr,RMnOx_Ndr,RFeOx_Ndnr,RFeOx_Ndr,S_O2,S_TCO2,S_NH4,S_TH3PO4,S_NO2,S_NO3,S_TMn,S_TFe,S_SO4,S_TH2S,S_CH4,S_Ca,S_TH4SiO4,S_TNdnr,S_TNdr,S_TA</t>
+    <t>Mn,Fe,Ndnr,Ndr,RO2Mn_ads,RO2Fe_ads,RMnOx_Ndnr,RMnOx_Ndr,RFeOx_Ndnr,RFeOx_Ndr,S_O2,S_TCO2,S_NH4,S_TH3PO4,S_NO2,S_NO3,S_TMn,S_TFe,S_SO4,S_TH2S,S_CH4,S_Ca,S_TH4SiO4,S_Al,S_TNdnr,S_TNdr,S_TA</t>
   </si>
   <si>
     <t>KMn_ads_Mn</t>
@@ -663,13 +669,22 @@
     <t>RFeCO3_pre</t>
   </si>
   <si>
-    <t>nuBSi</t>
+    <t>kBSi_dis</t>
   </si>
   <si>
     <t>RBSi_dis</t>
   </si>
   <si>
-    <t>aBSi</t>
+    <t>kBasalt</t>
+  </si>
+  <si>
+    <t>RBasalt_dis</t>
+  </si>
+  <si>
+    <t>aBasalt</t>
+  </si>
+  <si>
+    <t>pBasalt</t>
   </si>
   <si>
     <t>kNdPO4_pre</t>
@@ -678,13 +693,13 @@
     <t>RNdnrPO4_pre,RNdrPO4_pre</t>
   </si>
   <si>
-    <t>DNdMn</t>
+    <t>DNdMn_sed</t>
   </si>
   <si>
     <t>RMnOx_Ndnr,RMnOx_Ndr</t>
   </si>
   <si>
-    <t>DNdFe</t>
+    <t>DNdFe_sed</t>
   </si>
   <si>
     <t>RFeOx_Ndnr,RFeOx_Ndr</t>
@@ -726,6 +741,12 @@
     <t>Omega_RBSi_dis</t>
   </si>
   <si>
+    <t>KspBasalt</t>
+  </si>
+  <si>
+    <t>Omega_RBasalt_dis</t>
+  </si>
+  <si>
     <t>KspNdPO4</t>
   </si>
   <si>
@@ -751,6 +772,18 @@
   </si>
   <si>
     <t>S_TH3PO4,S_TA</t>
+  </si>
+  <si>
+    <t>rNdnrSi</t>
+  </si>
+  <si>
+    <t>S_TNdnr</t>
+  </si>
+  <si>
+    <t>rNdrSi</t>
+  </si>
+  <si>
+    <t>S_TNdr</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1135,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1626,7 +1659,7 @@
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
         <v>82</v>
@@ -1932,10 +1965,10 @@
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" t="s">
         <v>116</v>
-      </c>
-      <c r="F46" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1946,11 +1979,11 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="F47" t="s">
         <v>119</v>
@@ -2012,21 +2045,25 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
         <v>126</v>
       </c>
-      <c r="B51"/>
-      <c r="C51" t="s">
+      <c r="D51"/>
+      <c r="E51" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" t="s">
         <v>127</v>
-      </c>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B52"/>
       <c r="C52" t="s">
@@ -2040,7 +2077,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B53"/>
       <c r="C53" t="s">
@@ -2054,7 +2091,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B54"/>
       <c r="C54" t="s">
@@ -2068,7 +2105,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B55"/>
       <c r="C55" t="s">
@@ -2082,7 +2119,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B56"/>
       <c r="C56" t="s">
@@ -2096,7 +2133,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B57"/>
       <c r="C57" t="s">
@@ -2110,7 +2147,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B58"/>
       <c r="C58" t="s">
@@ -2124,7 +2161,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B59"/>
       <c r="C59" t="s">
@@ -2138,7 +2175,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B60"/>
       <c r="C60" t="s">
@@ -2147,40 +2184,40 @@
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B61"/>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B62"/>
       <c r="C62" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B63"/>
       <c r="C63" t="s">
@@ -2194,7 +2231,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B64"/>
       <c r="C64" t="s">
@@ -2208,7 +2245,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B65"/>
       <c r="C65" t="s">
@@ -2222,7 +2259,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B66"/>
       <c r="C66" t="s">
@@ -2236,7 +2273,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B67"/>
       <c r="C67" t="s">
@@ -2250,7 +2287,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B68"/>
       <c r="C68" t="s">
@@ -2264,7 +2301,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B69"/>
       <c r="C69" t="s">
@@ -2278,7 +2315,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B70"/>
       <c r="C70" t="s">
@@ -2292,7 +2329,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B71"/>
       <c r="C71" t="s">
@@ -2306,7 +2343,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B72"/>
       <c r="C72" t="s">
@@ -2320,7 +2357,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B73"/>
       <c r="C73" t="s">
@@ -2334,7 +2371,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B74"/>
       <c r="C74" t="s">
@@ -2348,7 +2385,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B75"/>
       <c r="C75" t="s">
@@ -2362,7 +2399,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B76"/>
       <c r="C76" t="s">
@@ -2376,7 +2413,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B77"/>
       <c r="C77" t="s">
@@ -2390,7 +2427,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B78"/>
       <c r="C78" t="s">
@@ -2404,7 +2441,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B79"/>
       <c r="C79" t="s">
@@ -2418,7 +2455,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B80"/>
       <c r="C80" t="s">
@@ -2432,7 +2469,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B81"/>
       <c r="C81" t="s">
@@ -2441,26 +2478,26 @@
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B82"/>
       <c r="C82" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B83"/>
       <c r="C83" t="s">
@@ -2474,7 +2511,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B84"/>
       <c r="C84" t="s">
@@ -2488,7 +2525,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B85"/>
       <c r="C85" t="s">
@@ -2502,7 +2539,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B86"/>
       <c r="C86" t="s">
@@ -2516,7 +2553,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B87"/>
       <c r="C87" t="s">
@@ -2530,7 +2567,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B88"/>
       <c r="C88" t="s">
@@ -2544,7 +2581,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B89"/>
       <c r="C89" t="s">
@@ -2553,40 +2590,40 @@
       <c r="D89"/>
       <c r="E89"/>
       <c r="F89" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B90"/>
       <c r="C90" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B91"/>
       <c r="C91" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
       <c r="F91" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B92"/>
       <c r="C92" t="s">
@@ -2600,7 +2637,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B93"/>
       <c r="C93" t="s">
@@ -2614,7 +2651,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B94"/>
       <c r="C94" t="s">
@@ -2628,7 +2665,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B95"/>
       <c r="C95" t="s">
@@ -2642,7 +2679,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B96"/>
       <c r="C96" t="s">
@@ -2656,7 +2693,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B97"/>
       <c r="C97" t="s">
@@ -2665,40 +2702,40 @@
       <c r="D97"/>
       <c r="E97"/>
       <c r="F97" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B98"/>
       <c r="C98" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B99"/>
       <c r="C99" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
       <c r="F99" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B100"/>
       <c r="C100" t="s">
@@ -2707,142 +2744,142 @@
       <c r="D100"/>
       <c r="E100"/>
       <c r="F100" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B101"/>
       <c r="C101" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B102"/>
       <c r="C102" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B103"/>
       <c r="C103" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B104"/>
       <c r="C104" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B105"/>
       <c r="C105" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B106"/>
       <c r="C106" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B107"/>
       <c r="C107" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D107"/>
       <c r="E107"/>
       <c r="F107" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B108"/>
       <c r="C108" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D108"/>
       <c r="E108"/>
       <c r="F108" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B109"/>
       <c r="C109" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D109"/>
       <c r="E109"/>
       <c r="F109" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B110"/>
       <c r="C110" t="s">
-        <v>47</v>
+        <v>238</v>
       </c>
       <c r="D110"/>
       <c r="E110"/>
@@ -2852,7 +2889,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B111"/>
       <c r="C111" t="s">
@@ -2864,6 +2901,90 @@
         <v>241</v>
       </c>
     </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>128</v>
+      </c>
+      <c r="B112"/>
+      <c r="C112" t="s">
+        <v>242</v>
+      </c>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>128</v>
+      </c>
+      <c r="B113"/>
+      <c r="C113" t="s">
+        <v>244</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>128</v>
+      </c>
+      <c r="B114"/>
+      <c r="C114" t="s">
+        <v>47</v>
+      </c>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>128</v>
+      </c>
+      <c r="B115"/>
+      <c r="C115" t="s">
+        <v>247</v>
+      </c>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116"/>
+      <c r="C116" t="s">
+        <v>249</v>
+      </c>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117"/>
+      <c r="C117" t="s">
+        <v>251</v>
+      </c>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
